--- a/ハートキャッチゲーム/Document/3.ハートゲーム音の仕様.xlsx
+++ b/ハートキャッチゲーム/Document/3.ハートゲーム音の仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9846B71-FD2E-402B-8904-27EA25FD7318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348C341-801D-4B44-A72D-189EEAE47F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
